--- a/examples/RTN/1week/data.xlsx
+++ b/examples/RTN/1week/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PAMSO_og\RTN\1week\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aramanuj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9999AE-61DE-4AC0-813E-E84881DB39E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9CC67E-F115-487B-88F4-93F01CD376C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="71">
   <si>
     <t>R</t>
   </si>
@@ -578,15 +578,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -596,8 +596,11 @@
       <c r="C1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -607,8 +610,11 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -618,8 +624,11 @@
       <c r="C3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -629,8 +638,11 @@
       <c r="C4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -640,8 +652,11 @@
       <c r="C5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -651,8 +666,11 @@
       <c r="C6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -662,8 +680,11 @@
       <c r="C7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -673,8 +694,11 @@
       <c r="C8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -684,8 +708,11 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -695,8 +722,11 @@
       <c r="C10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -706,8 +736,11 @@
       <c r="C11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -717,8 +750,11 @@
       <c r="C12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -728,8 +764,11 @@
       <c r="C13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -739,8 +778,11 @@
       <c r="C14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -750,8 +792,11 @@
       <c r="C15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -761,8 +806,11 @@
       <c r="C16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -772,8 +820,11 @@
       <c r="C17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -783,8 +834,11 @@
       <c r="C18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -794,8 +848,11 @@
       <c r="C19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -805,8 +862,11 @@
       <c r="C20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -816,8 +876,11 @@
       <c r="C21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -827,8 +890,11 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -837,6 +903,9 @@
       </c>
       <c r="C23" t="s">
         <v>67</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +2457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F28CE2-EADE-4E9C-9DC8-4E6E9DE9EA22}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/examples/RTN/1week/data.xlsx
+++ b/examples/RTN/1week/data.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aramanuj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/aramanuj_purdue_edu/Documents/ECNDATA/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9CC67E-F115-487B-88F4-93F01CD376C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D53172AA-BF82-4196-8F13-9DEC3ABC22CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480C6043-BACB-4773-9782-F10648C74CB4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Resources" sheetId="2" r:id="rId2"/>
     <sheet name="Network" sheetId="3" r:id="rId3"/>
-    <sheet name="Supply" sheetId="8" r:id="rId4"/>
+    <sheet name="Supply" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Network!$A$1:$C$68</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="71">
   <si>
     <t>R</t>
   </si>
@@ -313,6 +313,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -578,15 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -596,11 +600,8 @@
       <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -610,25 +611,19 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -638,25 +633,19 @@
       <c r="C4" t="s">
         <v>59</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -666,25 +655,19 @@
       <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -694,25 +677,19 @@
       <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -722,25 +699,19 @@
       <c r="C10" t="s">
         <v>62</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -750,25 +721,19 @@
       <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -778,25 +743,19 @@
       <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -806,25 +765,19 @@
       <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -834,25 +787,19 @@
       <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -862,25 +809,19 @@
       <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -890,22 +831,16 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071950A6-8371-48CC-802C-9294F7A46380}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -973,7 +908,7 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -999,8 +934,7 @@
         <v>53</v>
       </c>
       <c r="G3">
-        <f>IF(EXACT(F3,"Feed"),5,IF(EXACT(F3,"Product"),7,IF(EXACT(F3,"Vessel"),20,0)))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>40</v>
@@ -1026,7 +960,7 @@
         <v>54</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G18" si="0">IF(EXACT(F4,"Feed"),5,IF(EXACT(F4,"Product"),7,IF(EXACT(F4,"Vessel"),20,0)))</f>
+        <f t="shared" ref="G4:G16" si="0">IF(EXACT(F4,"Feed"),5,IF(EXACT(F4,"Product"),7,IF(EXACT(F4,"Vessel"),20,0)))</f>
         <v>0</v>
       </c>
       <c r="H4">
@@ -1399,8 +1333,7 @@
         <v>53</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>40</v>
@@ -1702,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324C579D-1EE4-4FE0-9E54-FCEF134C9F48}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1738,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2454,11 +2387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F28CE2-EADE-4E9C-9DC8-4E6E9DE9EA22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4FBAAB-7974-4973-8D78-679F51B9070B}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2479,7 +2412,7 @@
         <v>35</v>
       </c>
       <c r="B2">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2501,7 +2434,7 @@
         <v>41</v>
       </c>
       <c r="B4">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2523,7 +2456,7 @@
         <v>45</v>
       </c>
       <c r="B6">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2534,7 +2467,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2545,7 +2478,7 @@
         <v>38</v>
       </c>
       <c r="B8">
-        <v>660</v>
+        <v>275</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2556,7 +2489,7 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2567,7 +2500,7 @@
         <v>42</v>
       </c>
       <c r="B10">
-        <v>750</v>
+        <v>312.5</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2578,7 +2511,7 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2589,7 +2522,7 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>960</v>
+        <v>375</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2600,7 +2533,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>440</v>
+        <v>343.75</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2611,7 +2544,7 @@
         <v>41</v>
       </c>
       <c r="B14">
-        <v>1120</v>
+        <v>437.5</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2622,7 +2555,7 @@
         <v>42</v>
       </c>
       <c r="B15">
-        <v>500</v>
+        <v>390.625</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2633,7 +2566,7 @@
         <v>45</v>
       </c>
       <c r="B16">
-        <v>1040</v>
+        <v>406.25</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2644,7 +2577,7 @@
         <v>35</v>
       </c>
       <c r="B17">
-        <v>360</v>
+        <v>468.75</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2655,7 +2588,7 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>880</v>
+        <v>429.6875</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2666,7 +2599,7 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>420</v>
+        <v>546.875</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2677,7 +2610,7 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>1000</v>
+        <v>488.28125</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2688,7 +2621,7 @@
         <v>45</v>
       </c>
       <c r="B21">
-        <v>390</v>
+        <v>507.8125</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2699,7 +2632,7 @@
         <v>35</v>
       </c>
       <c r="B22">
-        <v>900</v>
+        <v>585.9375</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -2710,7 +2643,7 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>330</v>
+        <v>537.109375</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -2721,7 +2654,7 @@
         <v>41</v>
       </c>
       <c r="B24">
-        <v>1050</v>
+        <v>683.59375</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -2732,7 +2665,7 @@
         <v>42</v>
       </c>
       <c r="B25">
-        <v>375</v>
+        <v>610.3515625</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -2743,7 +2676,7 @@
         <v>45</v>
       </c>
       <c r="B26">
-        <v>975</v>
+        <v>634.765625</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -2754,7 +2687,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>300</v>
+        <v>732.421875</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2765,7 +2698,7 @@
         <v>38</v>
       </c>
       <c r="B28">
-        <v>825</v>
+        <v>671.38671875</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -2776,7 +2709,7 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>350</v>
+        <v>854.4921875</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -2787,7 +2720,7 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>937.5</v>
+        <v>762.939453125</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -2798,7 +2731,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>325</v>
+        <v>793.45703125</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2809,7 +2742,7 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>480</v>
+        <v>915.52734375</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -2820,7 +2753,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>330</v>
+        <v>839.2333984375</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -2831,7 +2764,7 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>560</v>
+        <v>1068.115234375</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -2842,7 +2775,7 @@
         <v>42</v>
       </c>
       <c r="B35">
-        <v>375</v>
+        <v>953.67431640625</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -2853,7 +2786,7 @@
         <v>45</v>
       </c>
       <c r="B36">
-        <v>520</v>
+        <v>991.8212890625</v>
       </c>
       <c r="C36">
         <v>7</v>

--- a/examples/RTN/1week/data.xlsx
+++ b/examples/RTN/1week/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue0-my.sharepoint.com/personal/aramanuj_purdue_edu/Documents/ECNDATA/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D53172AA-BF82-4196-8F13-9DEC3ABC22CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480C6043-BACB-4773-9782-F10648C74CB4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{D53172AA-BF82-4196-8F13-9DEC3ABC22CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A57381-A3BF-4ABB-AF7B-140EB50D0FC8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="72">
   <si>
     <t>R</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>V_11</t>
+  </si>
+  <si>
+    <t>N_cost</t>
   </si>
 </sst>
 </file>
@@ -582,15 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -600,8 +603,11 @@
       <c r="C1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -611,8 +617,11 @@
       <c r="C2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -622,8 +631,11 @@
       <c r="C3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -633,8 +645,11 @@
       <c r="C4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -644,8 +659,11 @@
       <c r="C5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -655,8 +673,11 @@
       <c r="C6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -666,8 +687,11 @@
       <c r="C7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -677,8 +701,11 @@
       <c r="C8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -688,8 +715,11 @@
       <c r="C9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -699,8 +729,11 @@
       <c r="C10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -710,8 +743,11 @@
       <c r="C11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -721,8 +757,11 @@
       <c r="C12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -732,8 +771,11 @@
       <c r="C13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -743,8 +785,11 @@
       <c r="C14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -754,8 +799,11 @@
       <c r="C15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -765,8 +813,11 @@
       <c r="C16" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -776,8 +827,11 @@
       <c r="C17" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -787,8 +841,11 @@
       <c r="C18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -798,8 +855,11 @@
       <c r="C19" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -809,8 +869,11 @@
       <c r="C20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -820,8 +883,11 @@
       <c r="C21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -831,8 +897,11 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -841,6 +910,9 @@
       </c>
       <c r="C23" t="s">
         <v>67</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +2462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4FBAAB-7974-4973-8D78-679F51B9070B}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
